--- a/biology/Médecine/Susan_Anderson/Susan_Anderson.xlsx
+++ b/biology/Médecine/Susan_Anderson/Susan_Anderson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Susan Anderson, née le 31 janvier 1870 à Fort Wayne (Indiana) et morte le 16 avril 1960 à Denver (Colorado), était une médecin américaine. C'est l'une des premières femmes à avoir pratiqué la médecine dans l'État du Colorado[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Susan Anderson, née le 31 janvier 1870 à Fort Wayne (Indiana) et morte le 16 avril 1960 à Denver (Colorado), était une médecin américaine. C'est l'une des premières femmes à avoir pratiqué la médecine dans l'État du Colorado.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Susan Anderson est née en 1870 à Fort Wayne, et déménage dans le Kansas durant son enfance. Ses parents divorcent lorsqu'elle est jeune ; Susan part donc vivre avec son père, son petit frère et sa grand-mère. Une fois son diplôme d'enseignement secondaire obtenu en 1891, sa famille décide de déménager à Cripple Creek (Colorado), après que de l'or y ait été découvert. Bien que Susan voulait travailler en tant que radiotélégraphiste, son père l'encourage à suivre des études de médecine à l'université du Michigan[1],[2].
-Anderson obtient une licence de médecin après ses études de médecine en 1897. Elle retourne à Cripple Creek, avant d'essayer de trouver un travail à Denver, Greeley et Eaton ; elle n'a été que brièvement engagée en tant qu'infirmière[1],[3]. En 1904, elle est nommée Coroner du comté de Grand, et a notamment dû enquêter sur la plupart des décès causés par la construction du chemin de fer du Moffat Tunnel[3],[2].
-Anderson contracte la tuberculose en 1907. Pensant qu'elle allait bientôt mourir et ressentant le besoin d'avoir un climat plus adapté à sa maladie, elle déménage à Fraser[4] dans le Colorado, où les habitants la surnommaient par affection « Doc Susie »[5]. Elle fut la seule médecin de Fraser pendant 49 ans[3],[5]. Elle soignait divers types de patients et de pathologies dans diverses conditions : elle s'est principalement occupée de cas de pneumonies durant la grippe de 1918[4], mais également d'accouchement et de blessures sportives. Bien que son travail consistait principalement à effectuer des visites au domicile des patients, Anderson n'a jamais possédé de voiture ou de cheval, et était souvent payée en nourriture ou en bois de chauffage plutôt qu'en argent[3],[4].
-Durant les années 1950, Anderson a attiré l'attention de plusieurs magazines et journaux. L'actrice Ethel Barrymore a proposé de faire un film sur la vie de Susan Anderson, mais celle-ci a refusé[3].
-Ayant des problèmes de santé, Anderson prend sa retraite en 1956, et est admise au Denver Health Medical Center en 1958, où elle décède en 1960 à l'âge de 90 ans. Elle est enterrée à Cripple Creek[2],[4].
-Anderson est entrée dans le Colorado Women's Hall of Fame en 1997[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Susan Anderson est née en 1870 à Fort Wayne, et déménage dans le Kansas durant son enfance. Ses parents divorcent lorsqu'elle est jeune ; Susan part donc vivre avec son père, son petit frère et sa grand-mère. Une fois son diplôme d'enseignement secondaire obtenu en 1891, sa famille décide de déménager à Cripple Creek (Colorado), après que de l'or y ait été découvert. Bien que Susan voulait travailler en tant que radiotélégraphiste, son père l'encourage à suivre des études de médecine à l'université du Michigan,.
+Anderson obtient une licence de médecin après ses études de médecine en 1897. Elle retourne à Cripple Creek, avant d'essayer de trouver un travail à Denver, Greeley et Eaton ; elle n'a été que brièvement engagée en tant qu'infirmière,. En 1904, elle est nommée Coroner du comté de Grand, et a notamment dû enquêter sur la plupart des décès causés par la construction du chemin de fer du Moffat Tunnel,.
+Anderson contracte la tuberculose en 1907. Pensant qu'elle allait bientôt mourir et ressentant le besoin d'avoir un climat plus adapté à sa maladie, elle déménage à Fraser dans le Colorado, où les habitants la surnommaient par affection « Doc Susie ». Elle fut la seule médecin de Fraser pendant 49 ans,. Elle soignait divers types de patients et de pathologies dans diverses conditions : elle s'est principalement occupée de cas de pneumonies durant la grippe de 1918, mais également d'accouchement et de blessures sportives. Bien que son travail consistait principalement à effectuer des visites au domicile des patients, Anderson n'a jamais possédé de voiture ou de cheval, et était souvent payée en nourriture ou en bois de chauffage plutôt qu'en argent,.
+Durant les années 1950, Anderson a attiré l'attention de plusieurs magazines et journaux. L'actrice Ethel Barrymore a proposé de faire un film sur la vie de Susan Anderson, mais celle-ci a refusé.
+Ayant des problèmes de santé, Anderson prend sa retraite en 1956, et est admise au Denver Health Medical Center en 1958, où elle décède en 1960 à l'âge de 90 ans. Elle est enterrée à Cripple Creek,.
+Anderson est entrée dans le Colorado Women's Hall of Fame en 1997.
 </t>
         </is>
       </c>
